--- a/reference/Core6ResourcesTable20240620.xlsx
+++ b/reference/Core6ResourcesTable20240620.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kohe/GitHub/clinical-core/reference/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA8A24E-7DB2-754E-B989-622B79DDFF70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B7D9C68-B849-2943-B889-FB62D6F2D054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23060" yWindow="500" windowWidth="40560" windowHeight="20000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13660" yWindow="500" windowWidth="40560" windowHeight="20000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AllergyIntoleranceTable" sheetId="15" r:id="rId1"/>
